--- a/biology/Médecine/Prix_Gruber_en_neurosciences/Prix_Gruber_en_neurosciences.xlsx
+++ b/biology/Médecine/Prix_Gruber_en_neurosciences/Prix_Gruber_en_neurosciences.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le prix Gruber de neurosciences est une distinction décernée par la fondation Gruber depuis 2004. Il distingue des individus ayant contribué à des avancées fondamentales dans le domaine des neurosciences. Sa dotation annuelle est de 500 000 dollars[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le prix Gruber de neurosciences est une distinction décernée par la fondation Gruber depuis 2004. Il distingue des individus ayant contribué à des avancées fondamentales dans le domaine des neurosciences. Sa dotation annuelle est de 500 000 dollars.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Liste des récipiendaires</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>2004 : Seymour Benzer
 2005 : Eric Knudsen et Masakazu Konishi
@@ -525,13 +539,13 @@
 2013 : Eve Marder
 2014 : Thomas Jessell
 2015 : Carla Shatz et Michael Greenberg
-2016 : Mu-ming Poo[2]
-2017 : Joshua Sanes[3]
-2018 : Ann Graybiel [4]
+2016 : Mu-ming Poo
+2017 : Joshua Sanes
+2018 : Ann Graybiel 
 2019 : Joseph Takahashi
-2020 : Friedrich Bonhoeffer, Corey Goodman et Marc Tessier-Lavigne[5]
+2020 : Friedrich Bonhoeffer, Corey Goodman et Marc Tessier-Lavigne
 2021 : Christine Petit et Christopher Walsh
-2022 : Larry Abbott, Emery Brown (en), Terry Sejnowski (en), Haim Sompolinsky (en)[6]
+2022 : Larry Abbott, Emery Brown (en), Terry Sejnowski (en), Haim Sompolinsky (en)
 2023 : Huda Akil (en)</t>
         </is>
       </c>
